--- a/doc/papers/SiliconPad/Diode-CV.xlsx
+++ b/doc/papers/SiliconPad/Diode-CV.xlsx
@@ -124,31 +124,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="3600"/>
-              <a:t>6x6</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="3600" baseline="0"/>
-              <a:t> mm Diodes for Fast Timing effort</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="3600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -257,8 +233,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.043069389017453"/>
-                  <c:y val="-0.374826811894398"/>
+                  <c:x val="-0.0425150672392334"/>
+                  <c:y val="-0.552421396429513"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -267,48 +243,48 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1"/>
+                      <a:rPr lang="en-US" sz="1800" b="1"/>
                       <a:t>Depletion</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
                       <a:t> Voltage: ~</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1"/>
+                      <a:rPr lang="en-US" sz="1800" b="1"/>
                       <a:t>120 V</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1"/>
+                      <a:rPr lang="en-US" sz="1800" b="1"/>
                       <a:t>Capacitance</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
                       <a:t> at V</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="-25000"/>
+                      <a:rPr lang="en-US" sz="1800" b="1" baseline="-25000"/>
                       <a:t>dep</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1"/>
+                      <a:rPr lang="en-US" sz="1800" b="1"/>
                       <a:t> 1.7E</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
                       <a:t>-11</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1"/>
+                      <a:rPr lang="en-US" sz="1800" b="1"/>
                       <a:t> F</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400"/>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -322,8 +298,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.289295190677749"/>
-                      <c:h val="0.184374638984537"/>
+                      <c:w val="0.370960216884181"/>
+                      <c:h val="0.108095833620005"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -700,11 +676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102185520"/>
-        <c:axId val="2100539952"/>
+        <c:axId val="2142528064"/>
+        <c:axId val="2142522576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102185520"/>
+        <c:axId val="2142528064"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -752,12 +728,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100539952"/>
+        <c:crossAx val="2142522576"/>
         <c:crossesAt val="1.0E-11"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2100539952"/>
+        <c:axId val="2142522576"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -812,7 +788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102185520"/>
+        <c:crossAx val="2142528064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -821,6 +797,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
@@ -828,9 +809,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -839,7 +821,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6293013"/>
+    <xdr:ext cx="8564940" cy="5828393"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
